--- a/DW0 Hybrid Weaponskills.xlsx
+++ b/DW0 Hybrid Weaponskills.xlsx
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1203,15 +1203,15 @@
       <c r="H4" s="10"/>
       <c r="J4" s="5">
         <f>D5*L3</f>
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K4" s="6">
         <f>J4*3</f>
-        <v>0.27</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="L4" s="5">
         <f>L3*(1-D5)</f>
-        <v>0.91</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="N4" s="69" t="s">
         <v>11</v>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
+        <v>0.19</v>
       </c>
       <c r="F5" s="12">
         <f>IF(B27="Nagi R15",1,0)</f>
@@ -1248,20 +1248,20 @@
       </c>
       <c r="G5" s="13">
         <f t="shared" ref="G5:G6" si="1">IF(F5&gt;0,$K$8,$K$7)</f>
-        <v>1.3165</v>
+        <v>1.3167</v>
       </c>
       <c r="H5" s="2"/>
       <c r="J5" s="5">
         <f>E5*L4</f>
-        <v>0.13650000000000004</v>
+        <v>0.1767</v>
       </c>
       <c r="K5" s="6">
         <f>J5*2</f>
-        <v>0.27300000000000008</v>
+        <v>0.35339999999999999</v>
       </c>
       <c r="L5" s="5">
         <f>L4*(1-E5)</f>
-        <v>0.77349999999999997</v>
+        <v>0.75329999999999997</v>
       </c>
       <c r="N5" s="69" t="s">
         <v>13</v>
@@ -1284,24 +1284,24 @@
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>0.15000000000000002</v>
+        <v>0.19</v>
       </c>
       <c r="F6" s="13">
         <v>0</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="1"/>
-        <v>1.3165</v>
+        <v>1.3167</v>
       </c>
       <c r="H6" s="10"/>
       <c r="J6" s="2"/>
       <c r="K6" s="5">
         <f>L5</f>
-        <v>0.77349999999999997</v>
+        <v>0.75329999999999997</v>
       </c>
       <c r="L6" s="2"/>
       <c r="N6" s="69" t="s">
@@ -1325,7 +1325,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="13">
         <f>G5+G6</f>
-        <v>2.633</v>
+        <v>2.6334</v>
       </c>
       <c r="H7" s="2"/>
       <c r="J7" s="15" t="s">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="K7" s="6">
         <f>SUM(K3:K6)</f>
-        <v>1.3165</v>
+        <v>1.3167</v>
       </c>
       <c r="L7" s="2"/>
       <c r="N7" s="69" t="s">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="K8" s="13">
         <f>SUM(K3:K5)+K6*(0.4*1+0.4*2+0.2*3)</f>
-        <v>1.9353000000000002</v>
+        <v>1.91934</v>
       </c>
       <c r="L8" s="2"/>
       <c r="N8" s="69" t="s">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="E10" s="16">
         <f>1+G7</f>
-        <v>3.633</v>
+        <v>3.6334</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="E11" s="16">
         <f>G7</f>
-        <v>2.633</v>
+        <v>2.6334</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1611,26 +1611,26 @@
       <c r="B18" s="2"/>
       <c r="C18" s="12">
         <f t="shared" ref="C18:C19" si="3">70+$E$18+$M$43+N27+IF(O27="Katana",440,IF(O27="Dagger",394,0))</f>
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="D18" s="21">
         <v>0.99</v>
       </c>
       <c r="E18" s="12">
         <f>100+C43</f>
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F18" s="22">
         <f t="shared" ref="F18:F19" si="4">IF(($E$18-$F$15+4)/4&lt;=(K27+3)/9+8,IF(($E$18-$F$15+4)/4&gt;0,($E$18-$F$15+4)/4,0),(K27+3)/9+8)</f>
-        <v>13.25</v>
+        <v>13.75</v>
       </c>
       <c r="G18" s="12">
         <f>100+D43</f>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H18" s="12">
         <f>F43+28</f>
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I18" s="12">
         <f>IF((N18+IF(OR(B36="Moonshade",B37="Moonshade"),250,0)+IF(B28="Hitaki",1000,0)+IF(OR(B27="Heishi",B27="Heishi R15"),500,0))&gt;3000,3000,(N18+IF(OR(B36="Moonshade",B37="Moonshade"),250,0)+IF(B28="Hitaki",1000,0)+IF(OR(B27="Heishi",B27="Heishi R15"),500,0)))</f>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="23">
-        <v>2250</v>
+        <v>1250</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -1663,7 +1663,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="12">
         <f t="shared" si="3"/>
-        <v>1306</v>
+        <v>1024</v>
       </c>
       <c r="D19" s="21">
         <v>0.95</v>
@@ -1671,7 +1671,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="22">
         <f t="shared" si="4"/>
-        <v>13.25</v>
+        <v>13.75</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1751,11 +1751,11 @@
       </c>
       <c r="E21" s="13">
         <f>0.3*$E$18</f>
-        <v>89.7</v>
+        <v>90.3</v>
       </c>
       <c r="F21" s="13">
         <f>0.3*$G$18</f>
-        <v>75.899999999999991</v>
+        <v>76.2</v>
       </c>
       <c r="G21" s="13">
         <f>IF($I$18&gt;2000,1.375+(($I$18-2000)/1000*(2.25-1.375)),IF($I$18&gt;1000,0.5+(($I$18-1000)/1000*(1.375-0.5)),IF($I$18=1000,0.5,0)))+IF($M$18=1,0.1,0)+IF($M$18=2,0.2,0)</f>
@@ -1763,23 +1763,23 @@
       </c>
       <c r="H21" s="11">
         <f t="shared" ref="H21:H23" si="7">$E$43+5%</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I21" s="25">
         <f>((E21+F21+$K$27+F18)*(((H21+1)*IF($M$18=1,1.1,IF($M$18=2,1.2,1)))+1+($G$5-1)))*C21*D18+((E21+F21+$K$28+F19)*$G$6)*D21*D19</f>
-        <v>4839.5702835975007</v>
+        <v>4235.7383677124999</v>
       </c>
       <c r="J21" s="12">
         <f t="shared" ref="J21:J23" si="8">$L$43</f>
-        <v>403</v>
+        <v>186</v>
       </c>
       <c r="K21" s="25">
         <f>(I21*G21+J21)*((1+($H$18/100))/(1+$D$15/100))*(1+$J$18)*(1+H21)</f>
-        <v>56890.956754690189</v>
+        <v>44784.883090036026</v>
       </c>
       <c r="L21" s="25">
         <f t="shared" ref="L21:L23" si="9">I21+K21</f>
-        <v>61730.527038287692</v>
+        <v>49020.621457748523</v>
       </c>
       <c r="N21" t="s">
         <v>200</v>
@@ -1808,11 +1808,11 @@
       </c>
       <c r="E22" s="13">
         <f>0.4*$E$18</f>
-        <v>119.60000000000001</v>
+        <v>120.4</v>
       </c>
       <c r="F22" s="13">
         <f>0.4*$G$18</f>
-        <v>101.2</v>
+        <v>101.60000000000001</v>
       </c>
       <c r="G22" s="13">
         <f>IF($I$18&gt;2000,1.5+(($I$18-2000)/1000*(2.5-1.5)),IF($I$18&gt;1000,0.5+(($I$18-1000)/1000*(1.5-0.5)),IF($I$18=1000,0.5,0)))+IF($M$18=1,0.1,0)+IF($M$18=2,0.2,0)</f>
@@ -1820,23 +1820,23 @@
       </c>
       <c r="H22" s="11">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I22" s="25">
         <f>((E22+F22+$K$27+F18)*(((H22+1)*IF($M$18=1,1.1,IF($M$18=2,1.2,1)))+($G$5-1)))*C22*D18+((E22+F22+$K$28+F19)*$G$6)*D22*D19</f>
-        <v>4161.4354022175003</v>
+        <v>3535.4799881775002</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="8"/>
-        <v>403</v>
+        <v>186</v>
       </c>
       <c r="K22" s="25">
         <f>(I22*G22+J22)*((1+($H$18/100))/(1+$D$15/100))*(1+$J$18/100)*(1+H22)</f>
-        <v>47414.679739151354</v>
+        <v>36225.253977760862</v>
       </c>
       <c r="L22" s="25">
         <f t="shared" si="9"/>
-        <v>51576.115141368857</v>
+        <v>39760.733965938365</v>
       </c>
       <c r="N22" s="64" t="s">
         <v>178</v>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="E23" s="13">
         <f>0.3*$E$18</f>
-        <v>89.7</v>
+        <v>90.3</v>
       </c>
       <c r="F23" s="13">
         <f>0.3*$G$18</f>
-        <v>75.899999999999991</v>
+        <v>76.2</v>
       </c>
       <c r="G23" s="13">
         <f>IF($I$18&gt;2000,1.375+(($I$18-2000)/1000*(2.25-1.375)),IF($I$18&gt;1000,0.5+(($I$18-1000)/1000*(1.375-0.5)),IF($I$18=1000,0.5,0)))+IF($M$18=1,0.1,0)+IF($M$18=2,0.2,0)</f>
@@ -1877,23 +1877,23 @@
       </c>
       <c r="H23" s="11">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I23" s="25">
         <f>((E23+F23+$K$27+F18)*(((H23+1)*IF($M$18=1,1.1,IF($M$18=2,1.2,1)))+($G$5-1)))*C23*D18+((E23+F23+$K$28+F19)*$G$6)*D23*D19</f>
-        <v>3581.505756097501</v>
+        <v>2972.5664302125006</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="8"/>
-        <v>403</v>
+        <v>186</v>
       </c>
       <c r="K23" s="25">
         <f>(I23*G23+39)*((1+($H$18/100))/(1+$D$15/100))*(1+$J$18/100)*(1+H23)</f>
-        <v>35527.868599213536</v>
+        <v>27003.36044175781</v>
       </c>
       <c r="L23" s="25">
         <f t="shared" si="9"/>
-        <v>39109.37435531104</v>
+        <v>29975.92687197031</v>
       </c>
       <c r="N23" s="64" t="s">
         <v>179</v>
@@ -2093,7 +2093,7 @@
     <row r="28" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="18" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C28" s="13">
         <f>VLOOKUP($B28,Gear!$A:$K,2,FALSE)</f>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D28" s="13">
         <f>VLOOKUP($B28,Gear!$A:$K,3,FALSE)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E28" s="26">
         <f>VLOOKUP($B28,Gear!$A:$K,4,FALSE)</f>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="F28" s="13">
         <f>VLOOKUP($B28,Gear!$A:$K,5,FALSE)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G28" s="26">
         <f>VLOOKUP($B28,Gear!$A:$K,6,FALSE)</f>
@@ -2129,19 +2129,19 @@
       </c>
       <c r="K28" s="13">
         <f>VLOOKUP($B28,Gear!$A:$K,10,FALSE)</f>
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="L28" s="13">
         <f>VLOOKUP($B28,Gear!$A:$K,11,FALSE)</f>
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="M28" s="13">
         <f>VLOOKUP($B28,Gear!$A:$L,12,FALSE)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N28" s="13">
         <f>VLOOKUP($B28,Gear!$A:$M,13,FALSE)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="O28" s="13" t="str">
         <f>VLOOKUP($B28,Gear!$A:$N,14,FALSE)</f>
@@ -2282,15 +2282,15 @@
     <row r="31" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="18" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="C31" s="13">
         <f>VLOOKUP($B31,Gear!$A:$K,2,FALSE)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D31" s="13">
         <f>VLOOKUP($B31,Gear!$A:$K,3,FALSE)</f>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E31" s="26">
         <f>VLOOKUP($B31,Gear!$A:$K,4,FALSE)</f>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="F31" s="13">
         <f>VLOOKUP($B31,Gear!$A:$K,5,FALSE)</f>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G31" s="26">
         <f>VLOOKUP($B31,Gear!$A:$K,6,FALSE)</f>
@@ -2310,11 +2310,11 @@
       </c>
       <c r="I31" s="26">
         <f>VLOOKUP($B31,Gear!$A:$K,8,FALSE)</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J31" s="26">
         <f>VLOOKUP($B31,Gear!$A:$K,9,FALSE)</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K31" s="13">
         <f>VLOOKUP($B31,Gear!$A:$K,10,FALSE)</f>
@@ -2326,30 +2326,30 @@
       </c>
       <c r="M31" s="13">
         <f>VLOOKUP($B31,Gear!$A:$L,12,FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X31" s="2"/>
     </row>
     <row r="32" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="18" t="s">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="C32" s="13">
         <f>VLOOKUP($B32,Gear!$A:$K,2,FALSE)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32" s="13">
         <f>VLOOKUP($B32,Gear!$A:$K,3,FALSE)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E32" s="26">
         <f>VLOOKUP($B32,Gear!$A:$K,4,FALSE)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="13">
         <f>VLOOKUP($B32,Gear!$A:$K,5,FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G32" s="26">
         <f>VLOOKUP($B32,Gear!$A:$K,6,FALSE)</f>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="J32" s="26">
         <f>VLOOKUP($B32,Gear!$A:$K,9,FALSE)</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K32" s="13">
         <f>VLOOKUP($B32,Gear!$A:$K,10,FALSE)</f>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="M32" s="13">
         <f>VLOOKUP($B32,Gear!$A:$L,12,FALSE)</f>
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="X32" s="2"/>
     </row>
@@ -2960,19 +2960,19 @@
       </c>
       <c r="C43" s="13">
         <f t="shared" ref="C43:J43" si="10">SUM(C27:C42)</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D43" s="13">
         <f t="shared" si="10"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E43" s="26">
         <f t="shared" si="10"/>
-        <v>0.25</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="F43" s="13">
         <f t="shared" si="10"/>
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G43" s="26">
         <f t="shared" si="10"/>
@@ -2984,20 +2984,20 @@
       </c>
       <c r="I43" s="26">
         <f t="shared" si="10"/>
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J43" s="26">
         <f t="shared" si="10"/>
-        <v>0.15000000000000002</v>
+        <v>0.19</v>
       </c>
       <c r="K43" s="13"/>
       <c r="L43" s="13">
         <f>SUM(L27:L42)</f>
-        <v>403</v>
+        <v>186</v>
       </c>
       <c r="M43" s="13">
         <f>SUM(M27:M42)</f>
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>

--- a/DW0 Hybrid Weaponskills.xlsx
+++ b/DW0 Hybrid Weaponskills.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin.NEXT\Downloads\Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Games\Final Fantasy\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1203,15 +1203,15 @@
       <c r="H4" s="10"/>
       <c r="J4" s="5">
         <f>D5*L3</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K4" s="6">
         <f>J4*3</f>
-        <v>0.21000000000000002</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="L4" s="5">
         <f>L3*(1-D5)</f>
-        <v>0.92999999999999994</v>
+        <v>0.95</v>
       </c>
       <c r="N4" s="69" t="s">
         <v>11</v>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="F5" s="12">
         <f>IF(B27="Nagi R15",1,0)</f>
@@ -1248,20 +1248,20 @@
       </c>
       <c r="G5" s="13">
         <f t="shared" ref="G5:G6" si="1">IF(F5&gt;0,$K$8,$K$7)</f>
-        <v>1.3167</v>
+        <v>1.3184999999999998</v>
       </c>
       <c r="H5" s="2"/>
       <c r="J5" s="5">
         <f>E5*L4</f>
-        <v>0.1767</v>
+        <v>0.2185</v>
       </c>
       <c r="K5" s="6">
         <f>J5*2</f>
-        <v>0.35339999999999999</v>
+        <v>0.437</v>
       </c>
       <c r="L5" s="5">
         <f>L4*(1-E5)</f>
-        <v>0.75329999999999997</v>
+        <v>0.73149999999999993</v>
       </c>
       <c r="N5" s="69" t="s">
         <v>13</v>
@@ -1284,24 +1284,24 @@
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="F6" s="13">
         <v>0</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="1"/>
-        <v>1.3167</v>
+        <v>1.3184999999999998</v>
       </c>
       <c r="H6" s="10"/>
       <c r="J6" s="2"/>
       <c r="K6" s="5">
         <f>L5</f>
-        <v>0.75329999999999997</v>
+        <v>0.73149999999999993</v>
       </c>
       <c r="L6" s="2"/>
       <c r="N6" s="69" t="s">
@@ -1325,7 +1325,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="13">
         <f>G5+G6</f>
-        <v>2.6334</v>
+        <v>2.6369999999999996</v>
       </c>
       <c r="H7" s="2"/>
       <c r="J7" s="15" t="s">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="K7" s="6">
         <f>SUM(K3:K6)</f>
-        <v>1.3167</v>
+        <v>1.3184999999999998</v>
       </c>
       <c r="L7" s="2"/>
       <c r="N7" s="69" t="s">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="K8" s="13">
         <f>SUM(K3:K5)+K6*(0.4*1+0.4*2+0.2*3)</f>
-        <v>1.91934</v>
+        <v>1.9036999999999999</v>
       </c>
       <c r="L8" s="2"/>
       <c r="N8" s="69" t="s">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="E10" s="16">
         <f>1+G7</f>
-        <v>3.6334</v>
+        <v>3.6369999999999996</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="E11" s="16">
         <f>G7</f>
-        <v>2.6334</v>
+        <v>2.6369999999999996</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1611,26 +1611,26 @@
       <c r="B18" s="2"/>
       <c r="C18" s="12">
         <f t="shared" ref="C18:C19" si="3">70+$E$18+$M$43+N27+IF(O27="Katana",440,IF(O27="Dagger",394,0))</f>
-        <v>1293</v>
+        <v>1418</v>
       </c>
       <c r="D18" s="21">
         <v>0.99</v>
       </c>
       <c r="E18" s="12">
         <f>100+C43</f>
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F18" s="22">
         <f t="shared" ref="F18:F19" si="4">IF(($E$18-$F$15+4)/4&lt;=(K27+3)/9+8,IF(($E$18-$F$15+4)/4&gt;0,($E$18-$F$15+4)/4,0),(K27+3)/9+8)</f>
-        <v>13.75</v>
+        <v>15.5</v>
       </c>
       <c r="G18" s="12">
         <f>100+D43</f>
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="H18" s="12">
         <f>F43+28</f>
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="I18" s="12">
         <f>IF((N18+IF(OR(B36="Moonshade",B37="Moonshade"),250,0)+IF(B28="Hitaki",1000,0)+IF(OR(B27="Heishi",B27="Heishi R15"),500,0))&gt;3000,3000,(N18+IF(OR(B36="Moonshade",B37="Moonshade"),250,0)+IF(B28="Hitaki",1000,0)+IF(OR(B27="Heishi",B27="Heishi R15"),500,0)))</f>
@@ -1663,7 +1663,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="12">
         <f t="shared" si="3"/>
-        <v>1024</v>
+        <v>1149</v>
       </c>
       <c r="D19" s="21">
         <v>0.95</v>
@@ -1671,7 +1671,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="22">
         <f t="shared" si="4"/>
-        <v>13.75</v>
+        <v>13.777777777777779</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1751,11 +1751,11 @@
       </c>
       <c r="E21" s="13">
         <f>0.3*$E$18</f>
-        <v>90.3</v>
+        <v>92.399999999999991</v>
       </c>
       <c r="F21" s="13">
         <f>0.3*$G$18</f>
-        <v>76.2</v>
+        <v>83.7</v>
       </c>
       <c r="G21" s="13">
         <f>IF($I$18&gt;2000,1.375+(($I$18-2000)/1000*(2.25-1.375)),IF($I$18&gt;1000,0.5+(($I$18-1000)/1000*(1.375-0.5)),IF($I$18=1000,0.5,0)))+IF($M$18=1,0.1,0)+IF($M$18=2,0.2,0)</f>
@@ -1763,11 +1763,11 @@
       </c>
       <c r="H21" s="11">
         <f t="shared" ref="H21:H23" si="7">$E$43+5%</f>
-        <v>0.2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I21" s="25">
         <f>((E21+F21+$K$27+F18)*(((H21+1)*IF($M$18=1,1.1,IF($M$18=2,1.2,1)))+1+($G$5-1)))*C21*D18+((E21+F21+$K$28+F19)*$G$6)*D21*D19</f>
-        <v>4235.7383677124999</v>
+        <v>4844.7807004024999</v>
       </c>
       <c r="J21" s="12">
         <f t="shared" ref="J21:J23" si="8">$L$43</f>
@@ -1775,11 +1775,11 @@
       </c>
       <c r="K21" s="25">
         <f>(I21*G21+J21)*((1+($H$18/100))/(1+$D$15/100))*(1+$J$18)*(1+H21)</f>
-        <v>44784.883090036026</v>
+        <v>63238.859508965696</v>
       </c>
       <c r="L21" s="25">
         <f t="shared" ref="L21:L23" si="9">I21+K21</f>
-        <v>49020.621457748523</v>
+        <v>68083.640209368197</v>
       </c>
       <c r="N21" t="s">
         <v>200</v>
@@ -1808,11 +1808,11 @@
       </c>
       <c r="E22" s="13">
         <f>0.4*$E$18</f>
-        <v>120.4</v>
+        <v>123.2</v>
       </c>
       <c r="F22" s="13">
         <f>0.4*$G$18</f>
-        <v>101.60000000000001</v>
+        <v>111.60000000000001</v>
       </c>
       <c r="G22" s="13">
         <f>IF($I$18&gt;2000,1.5+(($I$18-2000)/1000*(2.5-1.5)),IF($I$18&gt;1000,0.5+(($I$18-1000)/1000*(1.5-0.5)),IF($I$18=1000,0.5,0)))+IF($M$18=1,0.1,0)+IF($M$18=2,0.2,0)</f>
@@ -1820,11 +1820,11 @@
       </c>
       <c r="H22" s="11">
         <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I22" s="25">
         <f>((E22+F22+$K$27+F18)*(((H22+1)*IF($M$18=1,1.1,IF($M$18=2,1.2,1)))+($G$5-1)))*C22*D18+((E22+F22+$K$28+F19)*$G$6)*D22*D19</f>
-        <v>3535.4799881775002</v>
+        <v>4211.2786901074996</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="8"/>
@@ -1832,11 +1832,11 @@
       </c>
       <c r="K22" s="25">
         <f>(I22*G22+J22)*((1+($H$18/100))/(1+$D$15/100))*(1+$J$18/100)*(1+H22)</f>
-        <v>36225.253977760862</v>
+        <v>53222.129380969011</v>
       </c>
       <c r="L22" s="25">
         <f t="shared" si="9"/>
-        <v>39760.733965938365</v>
+        <v>57433.408071076512</v>
       </c>
       <c r="N22" s="64" t="s">
         <v>178</v>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="E23" s="13">
         <f>0.3*$E$18</f>
-        <v>90.3</v>
+        <v>92.399999999999991</v>
       </c>
       <c r="F23" s="13">
         <f>0.3*$G$18</f>
-        <v>76.2</v>
+        <v>83.7</v>
       </c>
       <c r="G23" s="13">
         <f>IF($I$18&gt;2000,1.375+(($I$18-2000)/1000*(2.25-1.375)),IF($I$18&gt;1000,0.5+(($I$18-1000)/1000*(1.375-0.5)),IF($I$18=1000,0.5,0)))+IF($M$18=1,0.1,0)+IF($M$18=2,0.2,0)</f>
@@ -1877,11 +1877,11 @@
       </c>
       <c r="H23" s="11">
         <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I23" s="25">
         <f>((E23+F23+$K$27+F18)*(((H23+1)*IF($M$18=1,1.1,IF($M$18=2,1.2,1)))+($G$5-1)))*C23*D18+((E23+F23+$K$28+F19)*$G$6)*D23*D19</f>
-        <v>2972.5664302125006</v>
+        <v>3540.2022604025005</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="8"/>
@@ -1889,11 +1889,11 @@
       </c>
       <c r="K23" s="25">
         <f>(I23*G23+39)*((1+($H$18/100))/(1+$D$15/100))*(1+$J$18/100)*(1+H23)</f>
-        <v>27003.36044175781</v>
+        <v>39761.650371931049</v>
       </c>
       <c r="L23" s="25">
         <f t="shared" si="9"/>
-        <v>29975.92687197031</v>
+        <v>43301.852632333554</v>
       </c>
       <c r="N23" s="64" t="s">
         <v>179</v>
@@ -2221,7 +2221,7 @@
     <row r="30" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C30" s="13">
         <f>VLOOKUP($B30,Gear!$A:$K,2,FALSE)</f>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="E30" s="26">
         <f>VLOOKUP($B30,Gear!$A:$K,4,FALSE)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F30" s="13">
         <f>VLOOKUP($B30,Gear!$A:$K,5,FALSE)</f>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="J30" s="26">
         <f>VLOOKUP($B30,Gear!$A:$K,9,FALSE)</f>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="K30" s="13">
         <f>VLOOKUP($B30,Gear!$A:$K,10,FALSE)</f>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="M30" s="13">
         <f>VLOOKUP($B30,Gear!$A:$L,12,FALSE)</f>
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2282,7 +2282,7 @@
     <row r="31" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C31" s="13">
         <f>VLOOKUP($B31,Gear!$A:$K,2,FALSE)</f>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="E31" s="26">
         <f>VLOOKUP($B31,Gear!$A:$K,4,FALSE)</f>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F31" s="13">
         <f>VLOOKUP($B31,Gear!$A:$K,5,FALSE)</f>
@@ -2326,14 +2326,14 @@
       </c>
       <c r="M31" s="13">
         <f>VLOOKUP($B31,Gear!$A:$L,12,FALSE)</f>
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="X31" s="2"/>
     </row>
     <row r="32" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C32" s="13">
         <f>VLOOKUP($B32,Gear!$A:$K,2,FALSE)</f>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="E32" s="26">
         <f>VLOOKUP($B32,Gear!$A:$K,4,FALSE)</f>
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F32" s="13">
         <f>VLOOKUP($B32,Gear!$A:$K,5,FALSE)</f>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="J32" s="26">
         <f>VLOOKUP($B32,Gear!$A:$K,9,FALSE)</f>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="K32" s="13">
         <f>VLOOKUP($B32,Gear!$A:$K,10,FALSE)</f>
@@ -2377,30 +2377,30 @@
       </c>
       <c r="M32" s="13">
         <f>VLOOKUP($B32,Gear!$A:$L,12,FALSE)</f>
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="X32" s="2"/>
     </row>
     <row r="33" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="18" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="C33" s="13">
         <f>VLOOKUP($B33,Gear!$A:$K,2,FALSE)</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D33" s="13">
         <f>VLOOKUP($B33,Gear!$A:$K,3,FALSE)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E33" s="26">
         <f>VLOOKUP($B33,Gear!$A:$K,4,FALSE)</f>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F33" s="13">
         <f>VLOOKUP($B33,Gear!$A:$K,5,FALSE)</f>
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G33" s="26">
         <f>VLOOKUP($B33,Gear!$A:$K,6,FALSE)</f>
@@ -2412,11 +2412,11 @@
       </c>
       <c r="I33" s="26">
         <f>VLOOKUP($B33,Gear!$A:$K,8,FALSE)</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J33" s="26">
         <f>VLOOKUP($B33,Gear!$A:$K,9,FALSE)</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K33" s="13">
         <f>VLOOKUP($B33,Gear!$A:$K,10,FALSE)</f>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="M33" s="13">
         <f>VLOOKUP($B33,Gear!$A:$L,12,FALSE)</f>
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -2960,19 +2960,19 @@
       </c>
       <c r="C43" s="13">
         <f t="shared" ref="C43:J43" si="10">SUM(C27:C42)</f>
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D43" s="13">
         <f t="shared" si="10"/>
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="E43" s="26">
         <f t="shared" si="10"/>
-        <v>0.15000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="F43" s="13">
         <f t="shared" si="10"/>
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="G43" s="26">
         <f t="shared" si="10"/>
@@ -2984,11 +2984,11 @@
       </c>
       <c r="I43" s="26">
         <f t="shared" si="10"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J43" s="26">
         <f t="shared" si="10"/>
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="K43" s="13"/>
       <c r="L43" s="13">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="M43" s="13">
         <f>SUM(M27:M42)</f>
-        <v>213</v>
+        <v>331</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
